--- a/Interfaccia Gara PC/Sistema Interfaccia 09_03_2023/Ordine_Volo.xlsx
+++ b/Interfaccia Gara PC/Sistema Interfaccia 09_03_2023/Ordine_Volo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Interfaccia Gara PC\Sistema Interfaccia 08_03_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Giacomo\Elettronica\Github_Repository\Sistema_Pylon\Interfaccia Gara PC\Sistema Interfaccia 09_03_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B3958-7A34-430E-A6D3-DB506EE6A065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3BAD3-1E1A-456E-9D59-2CBD4B004739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C455904-8E3A-464A-B074-24F254589577}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B798F757-CCF8-423E-95A3-1B0C2BD3D1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Q500" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="63">
   <si>
     <t>Q500</t>
   </si>
@@ -59,21 +59,24 @@
     <t>Manche N:1</t>
   </si>
   <si>
+    <t>Riccardo Tosi</t>
+  </si>
+  <si>
+    <t>Franco Cicoria</t>
+  </si>
+  <si>
+    <t>Bilu Asual</t>
+  </si>
+  <si>
+    <t>Andrea Tosi</t>
+  </si>
+  <si>
+    <t>Matteo Tomassini</t>
+  </si>
+  <si>
     <t>Marcel Hiusman</t>
   </si>
   <si>
-    <t>Franco Cicoria</t>
-  </si>
-  <si>
-    <t>Bilu Asual</t>
-  </si>
-  <si>
-    <t>Andrea Tosi</t>
-  </si>
-  <si>
-    <t>Matteo Tomassini</t>
-  </si>
-  <si>
     <t>Luca Fochesato</t>
   </si>
   <si>
@@ -95,94 +98,91 @@
     <t>Manche N:2</t>
   </si>
   <si>
-    <t>Manche N:3</t>
-  </si>
-  <si>
     <t>Mattias Jorge</t>
   </si>
   <si>
     <t>Gilles Degruelles</t>
   </si>
   <si>
+    <t>Alessandro Agrusa</t>
+  </si>
+  <si>
+    <t>Dan Cou</t>
+  </si>
+  <si>
+    <t>Rob Metmekeier</t>
+  </si>
+  <si>
+    <t>Antonio Tosi</t>
+  </si>
+  <si>
+    <t>Thomas Zivnri</t>
+  </si>
+  <si>
+    <t>Vincent Partenotte</t>
+  </si>
+  <si>
+    <t>------- -------</t>
+  </si>
+  <si>
     <t>Mauro Fagioli</t>
   </si>
   <si>
-    <t>Thomas Zivnri</t>
+    <t>+++++++ +++++++</t>
+  </si>
+  <si>
+    <t>Leon Huer</t>
+  </si>
+  <si>
+    <t>Gerald Coors</t>
+  </si>
+  <si>
+    <t>Ans Joachim Shaller</t>
+  </si>
+  <si>
+    <t>Ray Vd Clock</t>
+  </si>
+  <si>
+    <t>Christian Wolf</t>
+  </si>
+  <si>
+    <t>Robbert Vd Bosch</t>
+  </si>
+  <si>
+    <t>Renzo Razzi</t>
+  </si>
+  <si>
+    <t>Jan Petr</t>
+  </si>
+  <si>
+    <t>Roberto Cavallaro</t>
+  </si>
+  <si>
+    <t>Nicolas Yeps</t>
+  </si>
+  <si>
+    <t>Paolo Mucedola</t>
+  </si>
+  <si>
+    <t>Michele Pernigotti</t>
+  </si>
+  <si>
+    <t>Jiri Klein</t>
+  </si>
+  <si>
+    <t>Mattia Canevari</t>
+  </si>
+  <si>
+    <t>Beatriz Yeps</t>
   </si>
   <si>
     <t>Roman Pojer</t>
   </si>
   <si>
-    <t>Jiri Klein</t>
-  </si>
-  <si>
-    <t>+++++++ +++++++</t>
-  </si>
-  <si>
-    <t>Vincent Partenotte</t>
-  </si>
-  <si>
-    <t>Ans Joachim Shaller</t>
-  </si>
-  <si>
-    <t>Mattia Canevari</t>
-  </si>
-  <si>
-    <t>Nicolas Yeps</t>
-  </si>
-  <si>
-    <t>Renzo Razzi</t>
-  </si>
-  <si>
-    <t>Robbert Vd Bosch</t>
-  </si>
-  <si>
-    <t>Michele Pernigotti</t>
-  </si>
-  <si>
-    <t>Roberto Cavallaro</t>
-  </si>
-  <si>
-    <t>Antonio Tosi</t>
-  </si>
-  <si>
-    <t>Rob Metmekeier</t>
-  </si>
-  <si>
-    <t>Beatriz Yeps</t>
-  </si>
-  <si>
-    <t>Paolo Mucedola</t>
-  </si>
-  <si>
     <t>Herv Houdin</t>
   </si>
   <si>
-    <t>Dan Cou</t>
-  </si>
-  <si>
-    <t>------- -------</t>
-  </si>
-  <si>
     <t>Tomas Adrlik</t>
-  </si>
-  <si>
-    <t>Alessandro Agrusa</t>
-  </si>
-  <si>
-    <t>Christian Wolf</t>
-  </si>
-  <si>
-    <t>Jan Petr</t>
-  </si>
-  <si>
-    <t>Leon Huer</t>
-  </si>
-  <si>
-    <t>Ray Vd Clock</t>
-  </si>
-  <si>
-    <t>Gerald Coors</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -590,7 +590,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EFDDB3D8-D54D-4A27-BAF0-877D9FD8E2C9}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CBAF9D2F-8091-4D07-BB47-4FBA0A0FFE56}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -899,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6438A64-540F-41F2-98D2-C3F2EC29010D}">
-  <dimension ref="A1:S39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E885CE-9F6A-4499-885A-FEB868159A22}">
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1169,7 +1169,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1240,7 +1240,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1286,7 +1286,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -1296,7 +1296,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1342,7 +1342,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -1352,7 +1352,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -1447,7 +1447,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -1488,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1508,7 +1508,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
@@ -1554,7 +1554,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -1564,7 +1564,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -1610,7 +1610,7 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -1630,328 +1630,31 @@
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="13"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21">
-        <v>7</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="21">
-        <v>9</v>
-      </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="21">
-        <v>10</v>
-      </c>
-      <c r="R32" s="21"/>
-      <c r="S32" s="23"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="24"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>2</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26">
-        <v>8</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26">
-        <v>10</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26">
-        <v>2</v>
-      </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="27"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="24"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
-        <v>3</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26">
-        <v>5</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26">
-        <v>11</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="26">
-        <v>3</v>
-      </c>
-      <c r="R36" s="26"/>
-      <c r="S36" s="27"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="24"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="28">
-        <v>4</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26">
-        <v>6</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26">
-        <v>12</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="26">
-        <v>4</v>
-      </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="27"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="24"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
+  <mergeCells count="69">
     <mergeCell ref="N28:P29"/>
     <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="A30:S31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D29"/>
     <mergeCell ref="E28:G29"/>
@@ -2025,8 +1728,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6323D87E-9214-4343-95D5-86EF139663BC}">
-  <dimension ref="A1:S75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D5F157-D0E8-4215-9D99-C98FD538B962}">
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2300,22 +2003,22 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="23"/>
@@ -2346,32 +2049,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R14" s="26"/>
       <c r="S14" s="27"/>
@@ -2402,32 +2105,32 @@
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
@@ -2458,32 +2161,32 @@
         <v>4</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
@@ -2514,32 +2217,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="25" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="26" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
@@ -2570,32 +2273,32 @@
         <v>6</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="25" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
       <c r="Q22" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R22" s="26"/>
       <c r="S22" s="27"/>
@@ -2626,32 +2329,32 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
@@ -2682,22 +2385,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
@@ -2707,7 +2410,7 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
@@ -2738,27 +2441,27 @@
         <v>9</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="25" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="25" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -2794,22 +2497,22 @@
         <v>10</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="26" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="25" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
@@ -2819,7 +2522,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
@@ -2847,7 +2550,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2894,12 +2597,12 @@
         <v>1</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -2914,12 +2617,12 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R34" s="21"/>
       <c r="S34" s="23"/>
@@ -2950,32 +2653,32 @@
         <v>2</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R36" s="26"/>
       <c r="S36" s="27"/>
@@ -3006,32 +2709,32 @@
         <v>3</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
       <c r="N38" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R38" s="26"/>
       <c r="S38" s="27"/>
@@ -3062,32 +2765,32 @@
         <v>4</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R40" s="26"/>
       <c r="S40" s="27"/>
@@ -3118,32 +2821,32 @@
         <v>5</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R42" s="26"/>
       <c r="S42" s="27"/>
@@ -3179,27 +2882,27 @@
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
       <c r="N44" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R44" s="26"/>
       <c r="S44" s="27"/>
@@ -3230,7 +2933,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -3240,22 +2943,22 @@
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
       <c r="Q46" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R46" s="26"/>
       <c r="S46" s="27"/>
@@ -3291,27 +2994,27 @@
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="25" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
       <c r="Q48" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R48" s="26"/>
       <c r="S48" s="27"/>
@@ -3342,32 +3045,32 @@
         <v>9</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="25" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="26" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="25" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R50" s="26"/>
       <c r="S50" s="27"/>
@@ -3398,663 +3101,59 @@
         <v>10</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
       <c r="H52" s="25" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="26" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L52" s="26"/>
       <c r="M52" s="26"/>
       <c r="N52" s="25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
       <c r="Q52" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R52" s="26"/>
       <c r="S52" s="27"/>
     </row>
-    <row r="53" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="31"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="13"/>
-    </row>
-    <row r="55" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="16"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
-        <v>1</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="23"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="24"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="28">
-        <v>2</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" s="26"/>
-      <c r="S58" s="27"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="24"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="28">
-        <v>3</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R60" s="26"/>
-      <c r="S60" s="27"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="24"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="28">
-        <v>4</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="R62" s="26"/>
-      <c r="S62" s="27"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="24"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="28">
-        <v>5</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="R64" s="26"/>
-      <c r="S64" s="27"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="24"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="28">
-        <v>6</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="R66" s="26"/>
-      <c r="S66" s="27"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="24"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="28">
-        <v>7</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R68" s="26"/>
-      <c r="S68" s="27"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="24"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="28">
-        <v>8</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="R70" s="26"/>
-      <c r="S70" s="27"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="24"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="28">
-        <v>9</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="26"/>
-      <c r="S72" s="27"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="24"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="28">
-        <v>10</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R74" s="26"/>
-      <c r="S74" s="27"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="24"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
+  <mergeCells count="153">
     <mergeCell ref="A1:S5"/>
     <mergeCell ref="B6:G7"/>
     <mergeCell ref="H6:M7"/>
@@ -4187,6 +3286,13 @@
     <mergeCell ref="E44:G45"/>
     <mergeCell ref="H44:J45"/>
     <mergeCell ref="K44:M45"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q52:S53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:D53"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="H52:J53"/>
+    <mergeCell ref="K52:M53"/>
     <mergeCell ref="N48:P49"/>
     <mergeCell ref="Q48:S49"/>
     <mergeCell ref="A50:A51"/>
@@ -4201,92 +3307,14 @@
     <mergeCell ref="E48:G49"/>
     <mergeCell ref="H48:J49"/>
     <mergeCell ref="K48:M49"/>
-    <mergeCell ref="N52:P53"/>
-    <mergeCell ref="Q52:S53"/>
-    <mergeCell ref="A54:S55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D57"/>
-    <mergeCell ref="E56:G57"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N56:P57"/>
-    <mergeCell ref="Q56:S57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:D53"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="H52:J53"/>
-    <mergeCell ref="K52:M53"/>
-    <mergeCell ref="N58:P59"/>
-    <mergeCell ref="Q58:S59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:D61"/>
-    <mergeCell ref="E60:G61"/>
-    <mergeCell ref="H60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:P61"/>
-    <mergeCell ref="Q60:S61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="E58:G59"/>
-    <mergeCell ref="H58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="N62:P63"/>
-    <mergeCell ref="Q62:S63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="H64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="N64:P65"/>
-    <mergeCell ref="Q64:S65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:D63"/>
-    <mergeCell ref="E62:G63"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N66:P67"/>
-    <mergeCell ref="Q66:S67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:D69"/>
-    <mergeCell ref="E68:G69"/>
-    <mergeCell ref="H68:J69"/>
-    <mergeCell ref="K68:M69"/>
-    <mergeCell ref="N68:P69"/>
-    <mergeCell ref="Q68:S69"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:D67"/>
-    <mergeCell ref="E66:G67"/>
-    <mergeCell ref="H66:J67"/>
-    <mergeCell ref="K66:M67"/>
-    <mergeCell ref="N74:P75"/>
-    <mergeCell ref="Q74:S75"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:D75"/>
-    <mergeCell ref="E74:G75"/>
-    <mergeCell ref="H74:J75"/>
-    <mergeCell ref="K74:M75"/>
-    <mergeCell ref="N70:P71"/>
-    <mergeCell ref="Q70:S71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:D73"/>
-    <mergeCell ref="E72:G73"/>
-    <mergeCell ref="H72:J73"/>
-    <mergeCell ref="K72:M73"/>
-    <mergeCell ref="N72:P73"/>
-    <mergeCell ref="Q72:S73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:D71"/>
-    <mergeCell ref="E70:G71"/>
-    <mergeCell ref="H70:J71"/>
-    <mergeCell ref="K70:M71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97972B4-0731-4F0A-B6FE-917E78E04AD6}">
-  <dimension ref="A1:S45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4199BFD-0B96-4905-BD6C-686BCDEC0425}">
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S5"/>
@@ -4552,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -4618,7 +3646,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -4740,7 +3768,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
@@ -4786,7 +3814,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="25" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -4796,7 +3824,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
@@ -4829,7 +3857,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4886,7 +3914,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -4896,7 +3924,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
@@ -4932,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4988,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -5064,7 +4092,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="25" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
@@ -5130,389 +4158,29 @@
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
     </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="31"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="13"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="16"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
-        <v>1</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="23"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="24"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="28">
-        <v>2</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="27"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="24"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="28">
-        <v>3</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R40" s="26"/>
-      <c r="S40" s="27"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="24"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="28">
-        <v>4</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R42" s="26"/>
-      <c r="S42" s="27"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="24"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="28">
-        <v>5</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R44" s="26"/>
-      <c r="S44" s="27"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="24"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="Q42:S43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="K44:M45"/>
-    <mergeCell ref="N44:P45"/>
-    <mergeCell ref="Q44:S45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:M43"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="N40:P41"/>
-    <mergeCell ref="Q40:S41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="A34:S35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q36:S37"/>
+  <mergeCells count="83">
     <mergeCell ref="N30:P31"/>
     <mergeCell ref="Q30:S31"/>
     <mergeCell ref="A32:A33"/>
